--- a/일정 스프레드 시트.xlsx
+++ b/일정 스프레드 시트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1. 프로젝트 개요</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 게임 전개 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발주 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +524,7 @@
   <dimension ref="D5:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -622,11 +634,19 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4">
+        <v>42994</v>
+      </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D16" s="1">

--- a/일정 스프레드 시트.xlsx
+++ b/일정 스프레드 시트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>1. 프로젝트 개요</t>
   </si>
@@ -91,19 +91,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 게임 전개 구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문(현우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몬스터 1개와 타이틀 1차 구성(그래픽 작업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 문서 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전현우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 게임 전개 구상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">발주 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +552,7 @@
   <dimension ref="D5:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -588,7 +616,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4">
         <v>42994</v>
@@ -606,7 +634,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4">
         <v>42994</v>
@@ -624,7 +652,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4">
         <v>43008</v>
@@ -635,14 +663,14 @@
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>42994</v>
@@ -652,31 +680,55 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43001</v>
+      </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="4">
+        <v>42998</v>
+      </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="4">
+        <v>42998</v>
+      </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D19" s="1">

--- a/일정 스프레드 시트.xlsx
+++ b/일정 스프레드 시트.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="D5:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/일정 스프레드 시트.xlsx
+++ b/일정 스프레드 시트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>1. 프로젝트 개요</t>
   </si>
@@ -111,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김민정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,11 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료70%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +548,7 @@
   <dimension ref="D5:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -616,7 +612,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I12" s="4">
         <v>42994</v>
@@ -670,7 +666,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I15" s="4">
         <v>42994</v>
@@ -699,14 +695,14 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="4">
         <v>42998</v>
@@ -717,14 +713,14 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="4">
         <v>42998</v>

--- a/일정 스프레드 시트.xlsx
+++ b/일정 스프레드 시트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>1. 프로젝트 개요</t>
   </si>
@@ -128,6 +128,78 @@
   </si>
   <si>
     <t>완료70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정 시스템 변경 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정 시스템 문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 컨셉 문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 속성 문서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽 리소스 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표자료용 ppt 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강현웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라의 유연한 움직임 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵과 캐릭터 공격등의 충돌체크 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE978B6D-EFA7-4245-8E1A-9346FA30060F}">
   <dimension ref="D5:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -730,81 +802,145 @@
       <c r="D19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D20" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D22" s="1">
         <v>11</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D23" s="1">
         <v>12</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D24" s="1">
         <v>13</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D25" s="1">
         <v>14</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D26" s="1">
         <v>15</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="4">
+        <v>43017</v>
+      </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D27" s="1">
